--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:28:27+00:00</t>
+    <t>2025-09-22T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:05:42+00:00</t>
+    <t>2025-09-24T14:08:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T14:08:52+00:00</t>
+    <t>2025-10-01T08:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T08:29:05+00:00</t>
+    <t>2025-10-20T13:10:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Ressources utilisées lors de l’évènement.</t>
+    <t>Ressources utilisées lors de l’évènement (ex : chambre, matériel médical, véhicule).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -325,7 +325,7 @@
     <t>TDDUIRessourceType</t>
   </si>
   <si>
-    <t>Type de ressources utilisées dans le cadre de l’évènement (matériel, immobilier, véhicule).</t>
+    <t>Type de ressources utilisées dans le cadre de l’évènement.</t>
   </si>
   <si>
     <t>An Extension</t>
@@ -403,7 +403,7 @@
     <t>TDDUIMaterialDetail</t>
   </si>
   <si>
-    <t>Détail des ressources matérielles (ex: matériel médical, pédagogique)</t>
+    <t>Détail des ressources matérielles.</t>
   </si>
   <si>
     <t>Extension.extension:TDDUIMaterialDetail.id</t>
@@ -427,7 +427,7 @@
     <t>TDDUIFacilityResource</t>
   </si>
   <si>
-    <t>Détail des ressources immobilières (ex: bâtiment, salle, chambre)</t>
+    <t>Détail des ressources immobilières.</t>
   </si>
   <si>
     <t>Extension.extension:TDDUIFacilityResource.id</t>
@@ -1248,7 +1248,7 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:10:23+00:00</t>
+    <t>2025-10-21T07:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T07:40:55+00:00</t>
+    <t>2025-10-22T07:21:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:21:52+00:00</t>
+    <t>2025-10-22T14:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:35:45+00:00</t>
+    <t>2025-10-23T08:42:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
